--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.002424</v>
+        <v>0.003680666666666667</v>
       </c>
       <c r="H2">
-        <v>0.007272</v>
+        <v>0.011042</v>
       </c>
       <c r="I2">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="J2">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>0.009327095479999999</v>
+        <v>0.01941067290933333</v>
       </c>
       <c r="R2">
-        <v>0.08394385931999999</v>
+        <v>0.174696056184</v>
       </c>
       <c r="S2">
-        <v>0.0001568319173234557</v>
+        <v>0.0002977549272750328</v>
       </c>
       <c r="T2">
-        <v>0.0001568319173234557</v>
+        <v>0.0002977549272750328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.002424</v>
+        <v>0.003680666666666667</v>
       </c>
       <c r="H3">
-        <v>0.007272</v>
+        <v>0.011042</v>
       </c>
       <c r="I3">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="J3">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
-        <v>0.140112308176</v>
+        <v>0.2127502897248889</v>
       </c>
       <c r="R3">
-        <v>1.261010773584</v>
+        <v>1.914752607524</v>
       </c>
       <c r="S3">
-        <v>0.002355940493905717</v>
+        <v>0.003263536887189355</v>
       </c>
       <c r="T3">
-        <v>0.002355940493905717</v>
+        <v>0.003263536887189354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.002424</v>
+        <v>0.003680666666666667</v>
       </c>
       <c r="H4">
-        <v>0.007272</v>
+        <v>0.011042</v>
       </c>
       <c r="I4">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="J4">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>0.0709080398</v>
+        <v>0.1213088523675556</v>
       </c>
       <c r="R4">
-        <v>0.6381723582</v>
+        <v>1.091779671308</v>
       </c>
       <c r="S4">
-        <v>0.001192294413553265</v>
+        <v>0.001860847827544983</v>
       </c>
       <c r="T4">
-        <v>0.001192294413553265</v>
+        <v>0.001860847827544983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.002424</v>
+        <v>0.003680666666666667</v>
       </c>
       <c r="H5">
-        <v>0.007272</v>
+        <v>0.011042</v>
       </c>
       <c r="I5">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="J5">
-        <v>0.003952315680888554</v>
+        <v>0.005828946138996241</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>0.014704364568</v>
+        <v>0.02651975543333334</v>
       </c>
       <c r="R5">
-        <v>0.132339281112</v>
+        <v>0.2386777989</v>
       </c>
       <c r="S5">
-        <v>0.0002472488561061162</v>
+        <v>0.0004068064969868696</v>
       </c>
       <c r="T5">
-        <v>0.0002472488561061163</v>
+        <v>0.0004068064969868697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.609875</v>
       </c>
       <c r="I6">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787334</v>
       </c>
       <c r="J6">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N6">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q6">
-        <v>2.064831935625</v>
+        <v>2.8299906765</v>
       </c>
       <c r="R6">
-        <v>18.583487420625</v>
+        <v>25.4699160885</v>
       </c>
       <c r="S6">
-        <v>0.03471944209311032</v>
+        <v>0.04341135786514159</v>
       </c>
       <c r="T6">
-        <v>0.03471944209311032</v>
+        <v>0.04341135786514158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.609875</v>
       </c>
       <c r="I7">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787334</v>
       </c>
       <c r="J7">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P7">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q7">
         <v>31.01805584775</v>
@@ -883,10 +883,10 @@
         <v>279.16250262975</v>
       </c>
       <c r="S7">
-        <v>0.52155798991013</v>
+        <v>0.4758093140974427</v>
       </c>
       <c r="T7">
-        <v>0.5215579899101301</v>
+        <v>0.4758093140974426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.609875</v>
       </c>
       <c r="I8">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787334</v>
       </c>
       <c r="J8">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N8">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q8">
-        <v>15.697618340625</v>
+        <v>17.68629674925</v>
       </c>
       <c r="R8">
-        <v>141.278565065625</v>
+        <v>159.17667074325</v>
       </c>
       <c r="S8">
-        <v>0.2639500782479459</v>
+        <v>0.2713034229640446</v>
       </c>
       <c r="T8">
-        <v>0.2639500782479459</v>
+        <v>0.2713034229640446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.609875</v>
       </c>
       <c r="I9">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787334</v>
       </c>
       <c r="J9">
-        <v>0.8749634497759159</v>
+        <v>0.8498346916787333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N9">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O9">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P9">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q9">
-        <v>3.255251500125</v>
+        <v>3.866463618750001</v>
       </c>
       <c r="R9">
-        <v>29.29726350112499</v>
+        <v>34.79817256875</v>
       </c>
       <c r="S9">
-        <v>0.05473593952472963</v>
+        <v>0.0593105967521044</v>
       </c>
       <c r="T9">
-        <v>0.05473593952472965</v>
+        <v>0.0593105967521044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07426233333333333</v>
+        <v>0.09114066666666666</v>
       </c>
       <c r="H10">
-        <v>0.222787</v>
+        <v>0.273422</v>
       </c>
       <c r="I10">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="J10">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N10">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q10">
-        <v>0.2857474725938889</v>
+        <v>0.4806470755493333</v>
       </c>
       <c r="R10">
-        <v>2.571727253345</v>
+        <v>4.325823679944</v>
       </c>
       <c r="S10">
-        <v>0.004804745924744325</v>
+        <v>0.007373007401321681</v>
       </c>
       <c r="T10">
-        <v>0.004804745924744325</v>
+        <v>0.007373007401321682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07426233333333333</v>
+        <v>0.09114066666666666</v>
       </c>
       <c r="H11">
-        <v>0.222787</v>
+        <v>0.273422</v>
       </c>
       <c r="I11">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="J11">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.406322</v>
       </c>
       <c r="O11">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P11">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q11">
-        <v>4.292519362157111</v>
+        <v>5.268122597098222</v>
       </c>
       <c r="R11">
-        <v>38.632674259414</v>
+        <v>47.413103373884</v>
       </c>
       <c r="S11">
-        <v>0.07217724351151993</v>
+        <v>0.08081169921835606</v>
       </c>
       <c r="T11">
-        <v>0.07217724351151994</v>
+        <v>0.08081169921835607</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07426233333333333</v>
+        <v>0.09114066666666666</v>
       </c>
       <c r="H12">
-        <v>0.222787</v>
+        <v>0.273422</v>
       </c>
       <c r="I12">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="J12">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N12">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q12">
-        <v>2.172358286980556</v>
+        <v>3.003849758380889</v>
       </c>
       <c r="R12">
-        <v>19.551224582825</v>
+        <v>27.034647825428</v>
       </c>
       <c r="S12">
-        <v>0.03652746087902795</v>
+        <v>0.04607831323157076</v>
       </c>
       <c r="T12">
-        <v>0.03652746087902795</v>
+        <v>0.04607831323157078</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07426233333333333</v>
+        <v>0.09114066666666666</v>
       </c>
       <c r="H13">
-        <v>0.222787</v>
+        <v>0.273422</v>
       </c>
       <c r="I13">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="J13">
-        <v>0.1210842345431956</v>
+        <v>0.1443363621822704</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N13">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O13">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P13">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q13">
-        <v>0.4504869731863333</v>
+        <v>0.6566821744333333</v>
       </c>
       <c r="R13">
-        <v>4.054382758676999</v>
+        <v>5.910139569900001</v>
       </c>
       <c r="S13">
-        <v>0.007574784227903372</v>
+        <v>0.0100733423310219</v>
       </c>
       <c r="T13">
-        <v>0.007574784227903373</v>
+        <v>0.01007334233102191</v>
       </c>
     </row>
   </sheetData>
